--- a/biology/Botanique/Lily_Bollinger/Lily_Bollinger.xlsx
+++ b/biology/Botanique/Lily_Bollinger/Lily_Bollinger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lily Bollinger, née Élisabeth Law de Lauriston-Boubers[1] le 2 octobre 1899 à Évreux (Eure) et morte le 22 février 1977 à Aÿ (Marne), est une femme d'affaires française, directrice emblématique de la maison de champagne Bollinger de 1941 à 1971.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lily Bollinger, née Élisabeth Law de Lauriston-Boubers le 2 octobre 1899 à Évreux (Eure) et morte le 22 février 1977 à Aÿ (Marne), est une femme d'affaires française, directrice emblématique de la maison de champagne Bollinger de 1941 à 1971.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fille du baron Olivier Law de Lauriston-Boubers et de Berthe de Marsay, elle épouse Jacques Bollinger le 10 novembre 1923, directeur général des champagnes Bollinger et petit-fils du fondateur Jacques Joseph Bollinger.
 Après le décès de son mari en 1941, elle prend la présidence de la maison Bollinger et la dirige jusqu'en 1971.
@@ -545,7 +559,9 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1976 :  Chevalier de l'ordre national du Mérite.</t>
         </is>
